--- a/data/weather_final_data.xlsx
+++ b/data/weather_final_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.103.45589"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,40 +34,350 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -81,24 +392,322 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -389,9 +998,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A345" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B362" sqref="B362"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="27.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
@@ -414,13 +1028,13 @@
       <c r="B2" s="2">
         <v>43831</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>-1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
         <v>24</v>
       </c>
     </row>
@@ -431,13 +1045,13 @@
       <c r="B3" s="2">
         <v>43832</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
         <v>50</v>
       </c>
     </row>
@@ -448,13 +1062,13 @@
       <c r="B4" s="2">
         <v>43833</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
         <v>61</v>
       </c>
     </row>
@@ -465,13 +1079,13 @@
       <c r="B5" s="2">
         <v>43834</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
         <v>51</v>
       </c>
     </row>
@@ -482,13 +1096,13 @@
       <c r="B6" s="2">
         <v>43835</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
         <v>45</v>
       </c>
     </row>
@@ -499,13 +1113,13 @@
       <c r="B7" s="2">
         <v>43836</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>36</v>
       </c>
     </row>
@@ -516,13 +1130,13 @@
       <c r="B8" s="2">
         <v>43837</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>15</v>
       </c>
     </row>
@@ -533,13 +1147,13 @@
       <c r="B9" s="2">
         <v>43838</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>22</v>
       </c>
     </row>
@@ -550,13 +1164,13 @@
       <c r="B10" s="2">
         <v>43839</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
         <v>36</v>
       </c>
     </row>
@@ -567,13 +1181,13 @@
       <c r="B11" s="2">
         <v>43840</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
         <v>45</v>
       </c>
     </row>
@@ -584,13 +1198,13 @@
       <c r="B12" s="2">
         <v>43841</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
         <v>46</v>
       </c>
     </row>
@@ -601,13 +1215,13 @@
       <c r="B13" s="2">
         <v>43842</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="0">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0">
         <v>33</v>
       </c>
     </row>
@@ -618,13 +1232,13 @@
       <c r="B14" s="2">
         <v>43843</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
         <v>20</v>
       </c>
     </row>
@@ -635,13 +1249,13 @@
       <c r="B15" s="2">
         <v>43844</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>28</v>
       </c>
     </row>
@@ -652,13 +1266,13 @@
       <c r="B16" s="2">
         <v>43845</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>-1</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="0">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0">
         <v>33</v>
       </c>
     </row>
@@ -669,13 +1283,13 @@
       <c r="B17" s="2">
         <v>43846</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
         <v>33</v>
       </c>
     </row>
@@ -686,13 +1300,13 @@
       <c r="B18" s="2">
         <v>43847</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
         <v>41</v>
       </c>
     </row>
@@ -703,13 +1317,13 @@
       <c r="B19" s="2">
         <v>43848</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>42</v>
       </c>
     </row>
@@ -720,13 +1334,13 @@
       <c r="B20" s="2">
         <v>43849</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0">
         <v>56</v>
       </c>
     </row>
@@ -737,13 +1351,13 @@
       <c r="B21" s="2">
         <v>43850</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0">
         <v>54</v>
       </c>
     </row>
@@ -754,13 +1368,13 @@
       <c r="B22" s="2">
         <v>43851</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0">
         <v>35</v>
       </c>
     </row>
@@ -771,13 +1385,13 @@
       <c r="B23" s="2">
         <v>43852</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>6</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>41</v>
       </c>
     </row>
@@ -788,13 +1402,13 @@
       <c r="B24" s="2">
         <v>43853</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>39</v>
       </c>
     </row>
@@ -805,13 +1419,13 @@
       <c r="B25" s="2">
         <v>43854</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>55</v>
       </c>
     </row>
@@ -822,13 +1436,13 @@
       <c r="B26" s="2">
         <v>43855</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
         <v>41</v>
       </c>
     </row>
@@ -839,13 +1453,13 @@
       <c r="B27" s="2">
         <v>43856</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>26</v>
       </c>
     </row>
@@ -856,13 +1470,13 @@
       <c r="B28" s="2">
         <v>43857</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>17</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>9</v>
       </c>
     </row>
@@ -873,13 +1487,13 @@
       <c r="B29" s="2">
         <v>43858</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>7</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>12</v>
       </c>
     </row>
@@ -890,13 +1504,13 @@
       <c r="B30" s="2">
         <v>43859</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>18</v>
       </c>
     </row>
@@ -907,13 +1521,13 @@
       <c r="B31" s="2">
         <v>43860</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>22</v>
       </c>
     </row>
@@ -924,13 +1538,13 @@
       <c r="B32" s="2">
         <v>43861</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0">
         <v>32</v>
       </c>
     </row>
@@ -941,13 +1555,13 @@
       <c r="B33" s="2">
         <v>43862</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0">
         <v>57</v>
       </c>
     </row>
@@ -958,13 +1572,13 @@
       <c r="B34" s="2">
         <v>43863</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0">
         <v>65</v>
       </c>
     </row>
@@ -975,13 +1589,13 @@
       <c r="B35" s="2">
         <v>43864</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>2</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0">
         <v>31</v>
       </c>
     </row>
@@ -992,13 +1606,13 @@
       <c r="B36" s="2">
         <v>43865</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0">
         <v>27</v>
       </c>
     </row>
@@ -1009,13 +1623,13 @@
       <c r="B37" s="2">
         <v>43866</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>-3</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1026,13 +1640,13 @@
       <c r="B38" s="2">
         <v>43867</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>-4</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0">
         <v>26</v>
       </c>
     </row>
@@ -1043,13 +1657,13 @@
       <c r="B39" s="2">
         <v>43868</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0">
         <v>35</v>
       </c>
     </row>
@@ -1060,13 +1674,13 @@
       <c r="B40" s="2">
         <v>43869</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="0">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0">
         <v>37</v>
       </c>
     </row>
@@ -1077,13 +1691,13 @@
       <c r="B41" s="2">
         <v>43870</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="0">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1094,13 +1708,13 @@
       <c r="B42" s="2">
         <v>43871</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0">
         <v>49</v>
       </c>
     </row>
@@ -1111,13 +1725,13 @@
       <c r="B43" s="2">
         <v>43872</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="0">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0">
         <v>54</v>
       </c>
     </row>
@@ -1128,13 +1742,13 @@
       <c r="B44" s="2">
         <v>43873</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>8</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>14</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>38</v>
       </c>
     </row>
@@ -1145,13 +1759,13 @@
       <c r="B45" s="2">
         <v>43874</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>8</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0">
         <v>33</v>
       </c>
     </row>
@@ -1162,13 +1776,13 @@
       <c r="B46" s="2">
         <v>43875</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>8</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0">
         <v>53</v>
       </c>
     </row>
@@ -1179,13 +1793,13 @@
       <c r="B47" s="2">
         <v>43876</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>10</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>1</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>49</v>
       </c>
     </row>
@@ -1196,13 +1810,13 @@
       <c r="B48" s="2">
         <v>43877</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>7</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1213,13 +1827,13 @@
       <c r="B49" s="2">
         <v>43878</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>-3</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1230,13 +1844,13 @@
       <c r="B50" s="2">
         <v>43879</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>-1</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0">
         <v>21</v>
       </c>
     </row>
@@ -1247,13 +1861,13 @@
       <c r="B51" s="2">
         <v>43880</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0">
         <v>28</v>
       </c>
     </row>
@@ -1264,13 +1878,13 @@
       <c r="B52" s="2">
         <v>43881</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0">
         <v>44</v>
       </c>
     </row>
@@ -1281,13 +1895,13 @@
       <c r="B53" s="2">
         <v>43882</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>7</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>2</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1298,13 +1912,13 @@
       <c r="B54" s="2">
         <v>43883</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>6</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>1</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>65</v>
       </c>
     </row>
@@ -1315,13 +1929,13 @@
       <c r="B55" s="2">
         <v>43884</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>4</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0">
         <v>24</v>
       </c>
     </row>
@@ -1332,13 +1946,13 @@
       <c r="B56" s="2">
         <v>43885</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0">
         <v>29</v>
       </c>
     </row>
@@ -1349,13 +1963,13 @@
       <c r="B57" s="2">
         <v>43886</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>8</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>25</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1366,13 +1980,13 @@
       <c r="B58" s="2">
         <v>43887</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>7</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>1</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>17</v>
       </c>
     </row>
@@ -1383,13 +1997,13 @@
       <c r="B59" s="2">
         <v>43888</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="0">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0">
         <v>23</v>
       </c>
     </row>
@@ -1400,13 +2014,13 @@
       <c r="B60" s="2">
         <v>43889</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>5</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>24</v>
       </c>
     </row>
@@ -1417,13 +2031,13 @@
       <c r="B61" s="2">
         <v>43890</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>7</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0">
         <v>22</v>
       </c>
     </row>
@@ -1434,13 +2048,13 @@
       <c r="B62" s="2">
         <v>43891</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="0">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0">
         <v>33</v>
       </c>
     </row>
@@ -1451,13 +2065,13 @@
       <c r="B63" s="2">
         <v>43892</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>5</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="0">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0">
         <v>35</v>
       </c>
     </row>
@@ -1468,13 +2082,13 @@
       <c r="B64" s="2">
         <v>43893</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>6</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="0">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0">
         <v>32</v>
       </c>
     </row>
@@ -1485,13 +2099,13 @@
       <c r="B65" s="2">
         <v>43894</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>4</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="0">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0">
         <v>33</v>
       </c>
     </row>
@@ -1502,13 +2116,13 @@
       <c r="B66" s="2">
         <v>43895</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>2</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="0">
+        <v>0</v>
+      </c>
+      <c r="E66" s="0">
         <v>34</v>
       </c>
     </row>
@@ -1519,13 +2133,13 @@
       <c r="B67" s="2">
         <v>43896</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>4</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="0">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0">
         <v>35</v>
       </c>
     </row>
@@ -1536,13 +2150,13 @@
       <c r="B68" s="2">
         <v>43897</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>39</v>
       </c>
     </row>
@@ -1553,13 +2167,13 @@
       <c r="B69" s="2">
         <v>43898</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>8</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="0">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0">
         <v>38</v>
       </c>
     </row>
@@ -1570,13 +2184,13 @@
       <c r="B70" s="2">
         <v>43899</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>9</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>4</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>45</v>
       </c>
     </row>
@@ -1587,13 +2201,13 @@
       <c r="B71" s="2">
         <v>43900</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>7</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>9</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0">
         <v>30</v>
       </c>
     </row>
@@ -1604,13 +2218,13 @@
       <c r="B72" s="2">
         <v>43901</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>5</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="0">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1621,13 +2235,13 @@
       <c r="B73" s="2">
         <v>43902</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>7</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="0">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0">
         <v>32</v>
       </c>
     </row>
@@ -1638,13 +2252,13 @@
       <c r="B74" s="2">
         <v>43903</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>7</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="0">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0">
         <v>32</v>
       </c>
     </row>
@@ -1655,13 +2269,13 @@
       <c r="B75" s="2">
         <v>43904</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>5</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="0">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0">
         <v>31</v>
       </c>
     </row>
@@ -1672,13 +2286,13 @@
       <c r="B76" s="2">
         <v>43905</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="0">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0">
         <v>41</v>
       </c>
     </row>
@@ -1689,13 +2303,13 @@
       <c r="B77" s="2">
         <v>43906</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>4</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="0">
+        <v>0</v>
+      </c>
+      <c r="E77" s="0">
         <v>24</v>
       </c>
     </row>
@@ -1706,13 +2320,13 @@
       <c r="B78" s="2">
         <v>43907</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>8</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="0">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0">
         <v>40</v>
       </c>
     </row>
@@ -1723,13 +2337,13 @@
       <c r="B79" s="2">
         <v>43908</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>10</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="0">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0">
         <v>48</v>
       </c>
     </row>
@@ -1740,13 +2354,13 @@
       <c r="B80" s="2">
         <v>43909</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>10</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="0">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0">
         <v>53</v>
       </c>
     </row>
@@ -1757,13 +2371,13 @@
       <c r="B81" s="2">
         <v>43910</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>9</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="0">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0">
         <v>43</v>
       </c>
     </row>
@@ -1774,13 +2388,13 @@
       <c r="B82" s="2">
         <v>43911</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>13</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="0">
+        <v>0</v>
+      </c>
+      <c r="E82" s="0">
         <v>51</v>
       </c>
     </row>
@@ -1791,13 +2405,13 @@
       <c r="B83" s="2">
         <v>43912</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>12</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="0">
+        <v>0</v>
+      </c>
+      <c r="E83" s="0">
         <v>45</v>
       </c>
     </row>
@@ -1808,13 +2422,13 @@
       <c r="B84" s="2">
         <v>43913</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>10</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="0">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0">
         <v>41</v>
       </c>
     </row>
@@ -1825,13 +2439,13 @@
       <c r="B85" s="2">
         <v>43914</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>9</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="0">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0">
         <v>46</v>
       </c>
     </row>
@@ -1842,13 +2456,13 @@
       <c r="B86" s="2">
         <v>43915</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>12</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="0">
+        <v>0</v>
+      </c>
+      <c r="E86" s="0">
         <v>45</v>
       </c>
     </row>
@@ -1859,13 +2473,13 @@
       <c r="B87" s="2">
         <v>43916</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>13</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>10</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0">
         <v>38</v>
       </c>
     </row>
@@ -1876,13 +2490,13 @@
       <c r="B88" s="2">
         <v>43917</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>11</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>5</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>29</v>
       </c>
     </row>
@@ -1893,13 +2507,13 @@
       <c r="B89" s="2">
         <v>43918</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>7</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="0">
+        <v>0</v>
+      </c>
+      <c r="E89" s="0">
         <v>34</v>
       </c>
     </row>
@@ -1910,13 +2524,13 @@
       <c r="B90" s="2">
         <v>43919</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>8</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="0">
+        <v>0</v>
+      </c>
+      <c r="E90" s="0">
         <v>33</v>
       </c>
     </row>
@@ -1927,13 +2541,13 @@
       <c r="B91" s="2">
         <v>43920</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>10</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="0">
+        <v>0</v>
+      </c>
+      <c r="E91" s="0">
         <v>34</v>
       </c>
     </row>
@@ -1944,13 +2558,13 @@
       <c r="B92" s="2">
         <v>43921</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>11</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="0">
+        <v>0</v>
+      </c>
+      <c r="E92" s="0">
         <v>35</v>
       </c>
     </row>
@@ -1961,13 +2575,13 @@
       <c r="B93" s="2">
         <v>43922</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0">
         <v>11</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>1</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>50</v>
       </c>
     </row>
@@ -1978,13 +2592,13 @@
       <c r="B94" s="2">
         <v>43923</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>9</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="0">
+        <v>0</v>
+      </c>
+      <c r="E94" s="0">
         <v>36</v>
       </c>
     </row>
@@ -1995,13 +2609,13 @@
       <c r="B95" s="2">
         <v>43924</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>11</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="0">
+        <v>0</v>
+      </c>
+      <c r="E95" s="0">
         <v>43</v>
       </c>
     </row>
@@ -2012,13 +2626,13 @@
       <c r="B96" s="2">
         <v>43925</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>9</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="0">
+        <v>0</v>
+      </c>
+      <c r="E96" s="0">
         <v>62</v>
       </c>
     </row>
@@ -2029,13 +2643,13 @@
       <c r="B97" s="2">
         <v>43926</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>7</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="0">
+        <v>0</v>
+      </c>
+      <c r="E97" s="0">
         <v>35</v>
       </c>
     </row>
@@ -2046,13 +2660,13 @@
       <c r="B98" s="2">
         <v>43927</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>9</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="0">
+        <v>0</v>
+      </c>
+      <c r="E98" s="0">
         <v>42</v>
       </c>
     </row>
@@ -2063,13 +2677,13 @@
       <c r="B99" s="2">
         <v>43928</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>12</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="0">
+        <v>0</v>
+      </c>
+      <c r="E99" s="0">
         <v>61</v>
       </c>
     </row>
@@ -2080,13 +2694,13 @@
       <c r="B100" s="2">
         <v>43929</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>10</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="0">
+        <v>0</v>
+      </c>
+      <c r="E100" s="0">
         <v>40</v>
       </c>
     </row>
@@ -2097,13 +2711,13 @@
       <c r="B101" s="2">
         <v>43930</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>9</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="0">
+        <v>0</v>
+      </c>
+      <c r="E101" s="0">
         <v>38</v>
       </c>
     </row>
@@ -2114,13 +2728,13 @@
       <c r="B102" s="2">
         <v>43931</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>10</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="0">
+        <v>0</v>
+      </c>
+      <c r="E102" s="0">
         <v>33</v>
       </c>
     </row>
@@ -2131,13 +2745,13 @@
       <c r="B103" s="2">
         <v>43932</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>9</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>3</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0">
         <v>32</v>
       </c>
     </row>
@@ -2148,13 +2762,13 @@
       <c r="B104" s="2">
         <v>43933</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>8</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>4</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0">
         <v>26</v>
       </c>
     </row>
@@ -2165,13 +2779,13 @@
       <c r="B105" s="2">
         <v>43934</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0">
         <v>9</v>
       </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="0">
+        <v>0</v>
+      </c>
+      <c r="E105" s="0">
         <v>21</v>
       </c>
     </row>
@@ -2182,13 +2796,13 @@
       <c r="B106" s="2">
         <v>43935</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0">
         <v>12</v>
       </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="0">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0">
         <v>35</v>
       </c>
     </row>
@@ -2199,13 +2813,13 @@
       <c r="B107" s="2">
         <v>43936</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0">
         <v>12</v>
       </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="0">
+        <v>0</v>
+      </c>
+      <c r="E107" s="0">
         <v>47</v>
       </c>
     </row>
@@ -2216,13 +2830,13 @@
       <c r="B108" s="2">
         <v>43937</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0">
         <v>13</v>
       </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="0">
+        <v>0</v>
+      </c>
+      <c r="E108" s="0">
         <v>43</v>
       </c>
     </row>
@@ -2233,13 +2847,13 @@
       <c r="B109" s="2">
         <v>43938</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>12</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>14</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2250,13 +2864,13 @@
       <c r="B110" s="2">
         <v>43939</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>12</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>1</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0">
         <v>34</v>
       </c>
     </row>
@@ -2267,13 +2881,13 @@
       <c r="B111" s="2">
         <v>43940</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>11</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>19</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0">
         <v>23</v>
       </c>
     </row>
@@ -2284,13 +2898,13 @@
       <c r="B112" s="2">
         <v>43941</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>11</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>1</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0">
         <v>17</v>
       </c>
     </row>
@@ -2301,13 +2915,13 @@
       <c r="B113" s="2">
         <v>43942</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>9</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="0">
+        <v>0</v>
+      </c>
+      <c r="E113" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2318,13 +2932,13 @@
       <c r="B114" s="2">
         <v>43943</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>7</v>
       </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="0">
+        <v>0</v>
+      </c>
+      <c r="E114" s="0">
         <v>63</v>
       </c>
     </row>
@@ -2335,13 +2949,13 @@
       <c r="B115" s="2">
         <v>43944</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>9</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="0">
+        <v>0</v>
+      </c>
+      <c r="E115" s="0">
         <v>45</v>
       </c>
     </row>
@@ -2352,13 +2966,13 @@
       <c r="B116" s="2">
         <v>43945</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>10</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="0">
+        <v>0</v>
+      </c>
+      <c r="E116" s="0">
         <v>37</v>
       </c>
     </row>
@@ -2369,13 +2983,13 @@
       <c r="B117" s="2">
         <v>43946</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>14</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="0">
+        <v>0</v>
+      </c>
+      <c r="E117" s="0">
         <v>57</v>
       </c>
     </row>
@@ -2386,13 +3000,13 @@
       <c r="B118" s="2">
         <v>43947</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>12</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="0">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0">
         <v>33</v>
       </c>
     </row>
@@ -2403,13 +3017,13 @@
       <c r="B119" s="2">
         <v>43948</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>11</v>
       </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="0">
+        <v>0</v>
+      </c>
+      <c r="E119" s="0">
         <v>29</v>
       </c>
     </row>
@@ -2420,13 +3034,13 @@
       <c r="B120" s="2">
         <v>43949</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>13</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
+      <c r="D120" s="0">
+        <v>0</v>
+      </c>
+      <c r="E120" s="0">
         <v>32</v>
       </c>
     </row>
@@ -2437,13 +3051,13 @@
       <c r="B121" s="2">
         <v>43950</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>15</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="0">
+        <v>0</v>
+      </c>
+      <c r="E121" s="0">
         <v>39</v>
       </c>
     </row>
@@ -2454,13 +3068,13 @@
       <c r="B122" s="2">
         <v>43951</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>17</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="0">
+        <v>0</v>
+      </c>
+      <c r="E122" s="0">
         <v>35</v>
       </c>
     </row>
@@ -2471,13 +3085,13 @@
       <c r="B123" s="2">
         <v>43952</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>21</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="0">
+        <v>0</v>
+      </c>
+      <c r="E123" s="0">
         <v>44</v>
       </c>
     </row>
@@ -2488,13 +3102,13 @@
       <c r="B124" s="2">
         <v>43953</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>20</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="0">
         <v>1</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="0">
         <v>41</v>
       </c>
     </row>
@@ -2505,13 +3119,13 @@
       <c r="B125" s="2">
         <v>43954</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>18</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="0">
         <v>14</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="0">
         <v>25</v>
       </c>
     </row>
@@ -2522,13 +3136,13 @@
       <c r="B126" s="2">
         <v>43955</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>19</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="0">
+        <v>0</v>
+      </c>
+      <c r="E126" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2539,13 +3153,13 @@
       <c r="B127" s="2">
         <v>43956</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>15</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="0">
         <v>1</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="0">
         <v>30</v>
       </c>
     </row>
@@ -2556,13 +3170,13 @@
       <c r="B128" s="2">
         <v>43957</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>18</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="0">
+        <v>0</v>
+      </c>
+      <c r="E128" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2573,13 +3187,13 @@
       <c r="B129" s="2">
         <v>43958</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>17</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="0">
+        <v>0</v>
+      </c>
+      <c r="E129" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2590,13 +3204,13 @@
       <c r="B130" s="2">
         <v>43959</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>17</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="0">
         <v>4</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="0">
         <v>27</v>
       </c>
     </row>
@@ -2607,13 +3221,13 @@
       <c r="B131" s="2">
         <v>43960</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>16</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="0">
         <v>35</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="0">
         <v>14</v>
       </c>
     </row>
@@ -2624,13 +3238,13 @@
       <c r="B132" s="2">
         <v>43961</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>16</v>
       </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
+      <c r="D132" s="0">
+        <v>0</v>
+      </c>
+      <c r="E132" s="0">
         <v>22</v>
       </c>
     </row>
@@ -2641,13 +3255,13 @@
       <c r="B133" s="2">
         <v>43962</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>18</v>
       </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="0">
+        <v>0</v>
+      </c>
+      <c r="E133" s="0">
         <v>66</v>
       </c>
     </row>
@@ -2658,13 +3272,13 @@
       <c r="B134" s="2">
         <v>43963</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>16</v>
       </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
+      <c r="D134" s="0">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0">
         <v>48</v>
       </c>
     </row>
@@ -2675,13 +3289,13 @@
       <c r="B135" s="2">
         <v>43964</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>16</v>
       </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
+      <c r="D135" s="0">
+        <v>0</v>
+      </c>
+      <c r="E135" s="0">
         <v>34</v>
       </c>
     </row>
@@ -2692,13 +3306,13 @@
       <c r="B136" s="2">
         <v>43965</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>19</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="0">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0">
         <v>65</v>
       </c>
     </row>
@@ -2709,13 +3323,13 @@
       <c r="B137" s="2">
         <v>43966</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>16</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="0">
         <v>18</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="0">
         <v>32</v>
       </c>
     </row>
@@ -2726,13 +3340,13 @@
       <c r="B138" s="2">
         <v>43967</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>17</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="0">
         <v>1</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2743,13 +3357,13 @@
       <c r="B139" s="2">
         <v>43968</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>19</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="0">
         <v>1</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="0">
         <v>35</v>
       </c>
     </row>
@@ -2760,13 +3374,13 @@
       <c r="B140" s="2">
         <v>43969</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>18</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="0">
         <v>17</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="0">
         <v>32</v>
       </c>
     </row>
@@ -2777,13 +3391,13 @@
       <c r="B141" s="2">
         <v>43970</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>14</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="0">
         <v>8</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="0">
         <v>20</v>
       </c>
     </row>
@@ -2794,13 +3408,13 @@
       <c r="B142" s="2">
         <v>43971</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>14</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
+      <c r="D142" s="0">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0">
         <v>13</v>
       </c>
     </row>
@@ -2811,13 +3425,13 @@
       <c r="B143" s="2">
         <v>43972</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>15</v>
       </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
+      <c r="D143" s="0">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0">
         <v>23</v>
       </c>
     </row>
@@ -2828,13 +3442,13 @@
       <c r="B144" s="2">
         <v>43973</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>17</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="0">
+        <v>0</v>
+      </c>
+      <c r="E144" s="0">
         <v>29</v>
       </c>
     </row>
@@ -2845,13 +3459,13 @@
       <c r="B145" s="2">
         <v>43974</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>18</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="0">
+        <v>0</v>
+      </c>
+      <c r="E145" s="0">
         <v>30</v>
       </c>
     </row>
@@ -2862,13 +3476,13 @@
       <c r="B146" s="2">
         <v>43975</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>18</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="0">
         <v>4</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="0">
         <v>26</v>
       </c>
     </row>
@@ -2879,13 +3493,13 @@
       <c r="B147" s="2">
         <v>43976</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>18</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="0">
+        <v>0</v>
+      </c>
+      <c r="E147" s="0">
         <v>31</v>
       </c>
     </row>
@@ -2896,13 +3510,13 @@
       <c r="B148" s="2">
         <v>43977</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>18</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
+      <c r="D148" s="0">
+        <v>0</v>
+      </c>
+      <c r="E148" s="0">
         <v>37</v>
       </c>
     </row>
@@ -2913,13 +3527,13 @@
       <c r="B149" s="2">
         <v>43978</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>18</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="0">
+        <v>0</v>
+      </c>
+      <c r="E149" s="0">
         <v>25</v>
       </c>
     </row>
@@ -2930,13 +3544,13 @@
       <c r="B150" s="2">
         <v>43979</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>18</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="0">
+        <v>0</v>
+      </c>
+      <c r="E150" s="0">
         <v>29</v>
       </c>
     </row>
@@ -2947,13 +3561,13 @@
       <c r="B151" s="2">
         <v>43980</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>19</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
+      <c r="D151" s="0">
+        <v>0</v>
+      </c>
+      <c r="E151" s="0">
         <v>32</v>
       </c>
     </row>
@@ -2964,13 +3578,13 @@
       <c r="B152" s="2">
         <v>43981</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>20</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
+      <c r="D152" s="0">
+        <v>0</v>
+      </c>
+      <c r="E152" s="0">
         <v>34</v>
       </c>
     </row>
@@ -2981,13 +3595,13 @@
       <c r="B153" s="2">
         <v>43982</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>20</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="0">
         <v>2</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="0">
         <v>34</v>
       </c>
     </row>
@@ -2998,13 +3612,13 @@
       <c r="B154" s="2">
         <v>43983</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>21</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="0">
+        <v>0</v>
+      </c>
+      <c r="E154" s="0">
         <v>23</v>
       </c>
     </row>
@@ -3015,13 +3629,13 @@
       <c r="B155" s="2">
         <v>43984</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>19</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="0">
+        <v>0</v>
+      </c>
+      <c r="E155" s="0">
         <v>23</v>
       </c>
     </row>
@@ -3032,13 +3646,13 @@
       <c r="B156" s="2">
         <v>43985</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>22</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
+      <c r="D156" s="0">
+        <v>0</v>
+      </c>
+      <c r="E156" s="0">
         <v>35</v>
       </c>
     </row>
@@ -3049,13 +3663,13 @@
       <c r="B157" s="2">
         <v>43986</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>24</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="0">
+        <v>0</v>
+      </c>
+      <c r="E157" s="0">
         <v>46</v>
       </c>
     </row>
@@ -3066,13 +3680,13 @@
       <c r="B158" s="2">
         <v>43987</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0">
         <v>23</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
+      <c r="D158" s="0">
+        <v>0</v>
+      </c>
+      <c r="E158" s="0">
         <v>54</v>
       </c>
     </row>
@@ -3083,13 +3697,13 @@
       <c r="B159" s="2">
         <v>43988</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0">
         <v>22</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="0">
         <v>1</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="0">
         <v>55</v>
       </c>
     </row>
@@ -3100,13 +3714,13 @@
       <c r="B160" s="2">
         <v>43989</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>22</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
+      <c r="D160" s="0">
+        <v>0</v>
+      </c>
+      <c r="E160" s="0">
         <v>41</v>
       </c>
     </row>
@@ -3117,13 +3731,13 @@
       <c r="B161" s="2">
         <v>43990</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0">
         <v>24</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
+      <c r="D161" s="0">
+        <v>0</v>
+      </c>
+      <c r="E161" s="0">
         <v>45</v>
       </c>
     </row>
@@ -3134,13 +3748,13 @@
       <c r="B162" s="2">
         <v>43991</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0">
         <v>25</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
+      <c r="D162" s="0">
+        <v>0</v>
+      </c>
+      <c r="E162" s="0">
         <v>50</v>
       </c>
     </row>
@@ -3151,13 +3765,13 @@
       <c r="B163" s="2">
         <v>43992</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>25</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="0">
         <v>11</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="0">
         <v>40</v>
       </c>
     </row>
@@ -3168,13 +3782,13 @@
       <c r="B164" s="2">
         <v>43993</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0">
         <v>24</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="0">
         <v>9</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="0">
         <v>22</v>
       </c>
     </row>
@@ -3185,13 +3799,13 @@
       <c r="B165" s="2">
         <v>43994</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0">
         <v>23</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="0">
         <v>11</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="0">
         <v>34</v>
       </c>
     </row>
@@ -3202,13 +3816,13 @@
       <c r="B166" s="2">
         <v>43995</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0">
         <v>24</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="0">
         <v>22</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="0">
         <v>25</v>
       </c>
     </row>
@@ -3219,13 +3833,13 @@
       <c r="B167" s="2">
         <v>43996</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0">
         <v>24</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="0">
         <v>17</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="0">
         <v>20</v>
       </c>
     </row>
@@ -3236,13 +3850,13 @@
       <c r="B168" s="2">
         <v>43997</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0">
         <v>23</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="0">
+        <v>0</v>
+      </c>
+      <c r="E168" s="0">
         <v>27</v>
       </c>
     </row>
@@ -3253,13 +3867,13 @@
       <c r="B169" s="2">
         <v>43998</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0">
         <v>23</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
+      <c r="D169" s="0">
+        <v>0</v>
+      </c>
+      <c r="E169" s="0">
         <v>35</v>
       </c>
     </row>
@@ -3270,13 +3884,13 @@
       <c r="B170" s="2">
         <v>43999</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0">
         <v>22</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="0">
         <v>2</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="0">
         <v>35</v>
       </c>
     </row>
@@ -3287,13 +3901,13 @@
       <c r="B171" s="2">
         <v>44000</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0">
         <v>20</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="0">
         <v>21</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="0">
         <v>24</v>
       </c>
     </row>
@@ -3304,13 +3918,13 @@
       <c r="B172" s="2">
         <v>44001</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0">
         <v>22</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="0">
         <v>1</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="0">
         <v>23</v>
       </c>
     </row>
@@ -3321,13 +3935,13 @@
       <c r="B173" s="2">
         <v>44002</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0">
         <v>22</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="0">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0">
         <v>31</v>
       </c>
     </row>
@@ -3338,13 +3952,13 @@
       <c r="B174" s="2">
         <v>44003</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0">
         <v>23</v>
       </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="0">
+        <v>0</v>
+      </c>
+      <c r="E174" s="0">
         <v>29</v>
       </c>
     </row>
@@ -3355,13 +3969,13 @@
       <c r="B175" s="2">
         <v>44004</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0">
         <v>24</v>
       </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="0">
+        <v>0</v>
+      </c>
+      <c r="E175" s="0">
         <v>32</v>
       </c>
     </row>
@@ -3372,13 +3986,13 @@
       <c r="B176" s="2">
         <v>44005</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0">
         <v>24</v>
       </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
+      <c r="D176" s="0">
+        <v>0</v>
+      </c>
+      <c r="E176" s="0">
         <v>33</v>
       </c>
     </row>
@@ -3389,13 +4003,13 @@
       <c r="B177" s="2">
         <v>44006</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0">
         <v>22</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="0">
         <v>23</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="0">
         <v>22</v>
       </c>
     </row>
@@ -3406,13 +4020,13 @@
       <c r="B178" s="2">
         <v>44007</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0">
         <v>21</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="0">
         <v>6</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="0">
         <v>17</v>
       </c>
     </row>
@@ -3423,13 +4037,13 @@
       <c r="B179" s="2">
         <v>44008</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0">
         <v>22</v>
       </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="0">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0">
         <v>21</v>
       </c>
     </row>
@@ -3440,13 +4054,13 @@
       <c r="B180" s="2">
         <v>44009</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0">
         <v>23</v>
       </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
+      <c r="D180" s="0">
+        <v>0</v>
+      </c>
+      <c r="E180" s="0">
         <v>29</v>
       </c>
     </row>
@@ -3457,13 +4071,13 @@
       <c r="B181" s="2">
         <v>44010</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0">
         <v>24</v>
       </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="0">
+        <v>0</v>
+      </c>
+      <c r="E181" s="0">
         <v>31</v>
       </c>
     </row>
@@ -3474,13 +4088,13 @@
       <c r="B182" s="2">
         <v>44011</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0">
         <v>22</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="0">
         <v>40</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="0">
         <v>31</v>
       </c>
     </row>
@@ -3491,13 +4105,13 @@
       <c r="B183" s="2">
         <v>44012</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0">
         <v>21</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="0">
         <v>25</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="0">
         <v>11</v>
       </c>
     </row>
@@ -3508,13 +4122,13 @@
       <c r="B184" s="2">
         <v>44013</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0">
         <v>20</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="0">
         <v>2</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="0">
         <v>16</v>
       </c>
     </row>
@@ -3525,13 +4139,13 @@
       <c r="B185" s="2">
         <v>44014</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0">
         <v>22</v>
       </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
+      <c r="D185" s="0">
+        <v>0</v>
+      </c>
+      <c r="E185" s="0">
         <v>31</v>
       </c>
     </row>
@@ -3542,13 +4156,13 @@
       <c r="B186" s="2">
         <v>44015</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0">
         <v>21</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="0">
         <v>6</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="0">
         <v>22</v>
       </c>
     </row>
@@ -3559,13 +4173,13 @@
       <c r="B187" s="2">
         <v>44016</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0">
         <v>21</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="0">
         <v>1</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="0">
         <v>16</v>
       </c>
     </row>
@@ -3576,13 +4190,13 @@
       <c r="B188" s="2">
         <v>44017</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0">
         <v>22</v>
       </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
+      <c r="D188" s="0">
+        <v>0</v>
+      </c>
+      <c r="E188" s="0">
         <v>22</v>
       </c>
     </row>
@@ -3593,13 +4207,13 @@
       <c r="B189" s="2">
         <v>44018</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0">
         <v>23</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="0">
         <v>5</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="0">
         <v>22</v>
       </c>
     </row>
@@ -3610,13 +4224,13 @@
       <c r="B190" s="2">
         <v>44019</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0">
         <v>24</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="0">
         <v>3</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="0">
         <v>20</v>
       </c>
     </row>
@@ -3627,13 +4241,13 @@
       <c r="B191" s="2">
         <v>44020</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0">
         <v>24</v>
       </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
+      <c r="D191" s="0">
+        <v>0</v>
+      </c>
+      <c r="E191" s="0">
         <v>27</v>
       </c>
     </row>
@@ -3644,13 +4258,13 @@
       <c r="B192" s="2">
         <v>44021</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0">
         <v>24</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="0">
         <v>1</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="0">
         <v>33</v>
       </c>
     </row>
@@ -3661,13 +4275,13 @@
       <c r="B193" s="2">
         <v>44022</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0">
         <v>24</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="0">
         <v>34</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="0">
         <v>15</v>
       </c>
     </row>
@@ -3678,13 +4292,13 @@
       <c r="B194" s="2">
         <v>44023</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0">
         <v>24</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="0">
         <v>1</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="0">
         <v>19</v>
       </c>
     </row>
@@ -3695,13 +4309,13 @@
       <c r="B195" s="2">
         <v>44024</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0">
         <v>21</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="0">
         <v>29</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="0">
         <v>14</v>
       </c>
     </row>
@@ -3712,13 +4326,13 @@
       <c r="B196" s="2">
         <v>44025</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0">
         <v>19</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="0">
         <v>79</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="0">
         <v>7</v>
       </c>
     </row>
@@ -3729,13 +4343,13 @@
       <c r="B197" s="2">
         <v>44026</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0">
         <v>20</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="0">
         <v>9</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="0">
         <v>8</v>
       </c>
     </row>
@@ -3746,13 +4360,13 @@
       <c r="B198" s="2">
         <v>44027</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0">
         <v>20</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="0">
         <v>3</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="0">
         <v>12</v>
       </c>
     </row>
@@ -3763,13 +4377,13 @@
       <c r="B199" s="2">
         <v>44028</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0">
         <v>22</v>
       </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="0">
+        <v>0</v>
+      </c>
+      <c r="E199" s="0">
         <v>21</v>
       </c>
     </row>
@@ -3780,13 +4394,13 @@
       <c r="B200" s="2">
         <v>44029</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0">
         <v>23</v>
       </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
+      <c r="D200" s="0">
+        <v>0</v>
+      </c>
+      <c r="E200" s="0">
         <v>26</v>
       </c>
     </row>
@@ -3797,13 +4411,13 @@
       <c r="B201" s="2">
         <v>44030</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0">
         <v>23</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="0">
         <v>1</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="0">
         <v>25</v>
       </c>
     </row>
@@ -3814,13 +4428,13 @@
       <c r="B202" s="2">
         <v>44031</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0">
         <v>24</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="0">
         <v>6</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="0">
         <v>20</v>
       </c>
     </row>
@@ -3831,13 +4445,13 @@
       <c r="B203" s="2">
         <v>44032</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0">
         <v>25</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="0">
         <v>8</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="0">
         <v>16</v>
       </c>
     </row>
@@ -3848,13 +4462,13 @@
       <c r="B204" s="2">
         <v>44033</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0">
         <v>25</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="0">
         <v>4</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="0">
         <v>20</v>
       </c>
     </row>
@@ -3865,13 +4479,13 @@
       <c r="B205" s="2">
         <v>44034</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0">
         <v>22</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="0">
         <v>27</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="0">
         <v>18</v>
       </c>
     </row>
@@ -3882,13 +4496,13 @@
       <c r="B206" s="2">
         <v>44035</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0">
         <v>22</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="0">
         <v>66</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="0">
         <v>13</v>
       </c>
     </row>
@@ -3899,13 +4513,13 @@
       <c r="B207" s="2">
         <v>44036</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0">
         <v>21</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="0">
         <v>22</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="0">
         <v>10</v>
       </c>
     </row>
@@ -3916,13 +4530,13 @@
       <c r="B208" s="2">
         <v>44037</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0">
         <v>22</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="0">
         <v>8</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="0">
         <v>12</v>
       </c>
     </row>
@@ -3933,13 +4547,13 @@
       <c r="B209" s="2">
         <v>44038</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0">
         <v>23</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="0">
         <v>1</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="0">
         <v>16</v>
       </c>
     </row>
@@ -3950,13 +4564,13 @@
       <c r="B210" s="2">
         <v>44039</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0">
         <v>23</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="0">
         <v>15</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="0">
         <v>23</v>
       </c>
     </row>
@@ -3967,13 +4581,13 @@
       <c r="B211" s="2">
         <v>44040</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0">
         <v>23</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="0">
         <v>14</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="0">
         <v>13</v>
       </c>
     </row>
@@ -3984,13 +4598,13 @@
       <c r="B212" s="2">
         <v>44041</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0">
         <v>24</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="0">
         <v>33</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="0">
         <v>13</v>
       </c>
     </row>
@@ -4001,13 +4615,13 @@
       <c r="B213" s="2">
         <v>44042</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0">
         <v>24</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="0">
         <v>29</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="0">
         <v>14</v>
       </c>
     </row>
@@ -4018,13 +4632,13 @@
       <c r="B214" s="2">
         <v>44043</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0">
         <v>26</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="0">
         <v>3</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="0">
         <v>18</v>
       </c>
     </row>
@@ -4035,13 +4649,13 @@
       <c r="B215" s="2">
         <v>44044</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0">
         <v>26</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="0">
         <v>11</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="0">
         <v>19</v>
       </c>
     </row>
@@ -4052,13 +4666,13 @@
       <c r="B216" s="2">
         <v>44045</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0">
         <v>26</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="0">
         <v>21</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4069,13 +4683,13 @@
       <c r="B217" s="2">
         <v>44046</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0">
         <v>26</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="0">
         <v>21</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="0">
         <v>25</v>
       </c>
     </row>
@@ -4086,13 +4700,13 @@
       <c r="B218" s="2">
         <v>44047</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0">
         <v>27</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="0">
         <v>13</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="0">
         <v>38</v>
       </c>
     </row>
@@ -4103,13 +4717,13 @@
       <c r="B219" s="2">
         <v>44048</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0">
         <v>26</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="0">
         <v>17</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="0">
         <v>29</v>
       </c>
     </row>
@@ -4120,13 +4734,13 @@
       <c r="B220" s="2">
         <v>44049</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0">
         <v>25</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="0">
         <v>28</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4137,13 +4751,13 @@
       <c r="B221" s="2">
         <v>44050</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0">
         <v>24</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="0">
         <v>40</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="0">
         <v>26</v>
       </c>
     </row>
@@ -4154,13 +4768,13 @@
       <c r="B222" s="2">
         <v>44051</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0">
         <v>24</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="0">
         <v>70</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="0">
         <v>12</v>
       </c>
     </row>
@@ -4171,13 +4785,13 @@
       <c r="B223" s="2">
         <v>44052</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0">
         <v>26</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="0">
         <v>23</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="0">
         <v>12</v>
       </c>
     </row>
@@ -4188,13 +4802,13 @@
       <c r="B224" s="2">
         <v>44053</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0">
         <v>26</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="0">
         <v>33</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="0">
         <v>11</v>
       </c>
     </row>
@@ -4205,13 +4819,13 @@
       <c r="B225" s="2">
         <v>44054</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0">
         <v>26</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="0">
         <v>28</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="0">
         <v>15</v>
       </c>
     </row>
@@ -4222,13 +4836,13 @@
       <c r="B226" s="2">
         <v>44055</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0">
         <v>27</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="0">
         <v>5</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="0">
         <v>19</v>
       </c>
     </row>
@@ -4239,13 +4853,13 @@
       <c r="B227" s="2">
         <v>44056</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0">
         <v>28</v>
       </c>
-      <c r="D227">
-        <v>0</v>
-      </c>
-      <c r="E227">
+      <c r="D227" s="0">
+        <v>0</v>
+      </c>
+      <c r="E227" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4256,13 +4870,13 @@
       <c r="B228" s="2">
         <v>44057</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0">
         <v>28</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="0">
         <v>1</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="0">
         <v>25</v>
       </c>
     </row>
@@ -4273,13 +4887,13 @@
       <c r="B229" s="2">
         <v>44058</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0">
         <v>28</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="0">
         <v>8</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="0">
         <v>26</v>
       </c>
     </row>
@@ -4290,13 +4904,13 @@
       <c r="B230" s="2">
         <v>44059</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0">
         <v>28</v>
       </c>
-      <c r="D230">
-        <v>0</v>
-      </c>
-      <c r="E230">
+      <c r="D230" s="0">
+        <v>0</v>
+      </c>
+      <c r="E230" s="0">
         <v>20</v>
       </c>
     </row>
@@ -4307,13 +4921,13 @@
       <c r="B231" s="2">
         <v>44060</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0">
         <v>28</v>
       </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
+      <c r="D231" s="0">
+        <v>0</v>
+      </c>
+      <c r="E231" s="0">
         <v>25</v>
       </c>
     </row>
@@ -4324,13 +4938,13 @@
       <c r="B232" s="2">
         <v>44061</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0">
         <v>27</v>
       </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
+      <c r="D232" s="0">
+        <v>0</v>
+      </c>
+      <c r="E232" s="0">
         <v>32</v>
       </c>
     </row>
@@ -4341,13 +4955,13 @@
       <c r="B233" s="2">
         <v>44062</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0">
         <v>27</v>
       </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
+      <c r="D233" s="0">
+        <v>0</v>
+      </c>
+      <c r="E233" s="0">
         <v>38</v>
       </c>
     </row>
@@ -4358,13 +4972,13 @@
       <c r="B234" s="2">
         <v>44063</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0">
         <v>27</v>
       </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
+      <c r="D234" s="0">
+        <v>0</v>
+      </c>
+      <c r="E234" s="0">
         <v>36</v>
       </c>
     </row>
@@ -4375,13 +4989,13 @@
       <c r="B235" s="2">
         <v>44064</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0">
         <v>26</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="0">
         <v>1</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="0">
         <v>34</v>
       </c>
     </row>
@@ -4392,13 +5006,13 @@
       <c r="B236" s="2">
         <v>44065</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0">
         <v>25</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="0">
         <v>8</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="0">
         <v>26</v>
       </c>
     </row>
@@ -4409,13 +5023,13 @@
       <c r="B237" s="2">
         <v>44066</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0">
         <v>25</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="0">
         <v>2</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="0">
         <v>22</v>
       </c>
     </row>
@@ -4426,13 +5040,13 @@
       <c r="B238" s="2">
         <v>44067</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0">
         <v>27</v>
       </c>
-      <c r="D238">
-        <v>0</v>
-      </c>
-      <c r="E238">
+      <c r="D238" s="0">
+        <v>0</v>
+      </c>
+      <c r="E238" s="0">
         <v>27</v>
       </c>
     </row>
@@ -4443,13 +5057,13 @@
       <c r="B239" s="2">
         <v>44068</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0">
         <v>28</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="0">
         <v>1</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="0">
         <v>30</v>
       </c>
     </row>
@@ -4460,13 +5074,13 @@
       <c r="B240" s="2">
         <v>44069</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0">
         <v>28</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="0">
         <v>22</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4477,13 +5091,13 @@
       <c r="B241" s="2">
         <v>44070</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0">
         <v>27</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="0">
         <v>10</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="0">
         <v>20</v>
       </c>
     </row>
@@ -4494,13 +5108,13 @@
       <c r="B242" s="2">
         <v>44071</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0">
         <v>27</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="0">
         <v>13</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="0">
         <v>17</v>
       </c>
     </row>
@@ -4511,13 +5125,13 @@
       <c r="B243" s="2">
         <v>44072</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0">
         <v>27</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="0">
         <v>13</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="0">
         <v>13</v>
       </c>
     </row>
@@ -4528,13 +5142,13 @@
       <c r="B244" s="2">
         <v>44073</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0">
         <v>27</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="0">
         <v>8</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="0">
         <v>14</v>
       </c>
     </row>
@@ -4545,13 +5159,13 @@
       <c r="B245" s="2">
         <v>44074</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0">
         <v>26</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="0">
         <v>2</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="0">
         <v>14</v>
       </c>
     </row>
@@ -4562,13 +5176,13 @@
       <c r="B246" s="2">
         <v>44075</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0">
         <v>25</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="0">
         <v>1</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="0">
         <v>17</v>
       </c>
     </row>
@@ -4579,13 +5193,13 @@
       <c r="B247" s="2">
         <v>44076</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0">
         <v>24</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="0">
         <v>56</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="0">
         <v>13</v>
       </c>
     </row>
@@ -4596,13 +5210,13 @@
       <c r="B248" s="2">
         <v>44077</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0">
         <v>24</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="0">
         <v>44</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="0">
         <v>17</v>
       </c>
     </row>
@@ -4613,13 +5227,13 @@
       <c r="B249" s="2">
         <v>44078</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0">
         <v>23</v>
       </c>
-      <c r="D249">
-        <v>0</v>
-      </c>
-      <c r="E249">
+      <c r="D249" s="0">
+        <v>0</v>
+      </c>
+      <c r="E249" s="0">
         <v>31</v>
       </c>
     </row>
@@ -4630,13 +5244,13 @@
       <c r="B250" s="2">
         <v>44079</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0">
         <v>20</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="0">
         <v>5</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="0">
         <v>32</v>
       </c>
     </row>
@@ -4647,13 +5261,13 @@
       <c r="B251" s="2">
         <v>44080</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0">
         <v>20</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="0">
         <v>15</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="0">
         <v>16</v>
       </c>
     </row>
@@ -4664,13 +5278,13 @@
       <c r="B252" s="2">
         <v>44081</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0">
         <v>21</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="0">
         <v>64</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="0">
         <v>10</v>
       </c>
     </row>
@@ -4681,13 +5295,13 @@
       <c r="B253" s="2">
         <v>44082</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0">
         <v>23</v>
       </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
+      <c r="D253" s="0">
+        <v>0</v>
+      </c>
+      <c r="E253" s="0">
         <v>37</v>
       </c>
     </row>
@@ -4698,13 +5312,13 @@
       <c r="B254" s="2">
         <v>44083</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0">
         <v>22</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="0">
         <v>10</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="0">
         <v>27</v>
       </c>
     </row>
@@ -4715,13 +5329,13 @@
       <c r="B255" s="2">
         <v>44084</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0">
         <v>22</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="0">
         <v>1</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="0">
         <v>27</v>
       </c>
     </row>
@@ -4732,13 +5346,13 @@
       <c r="B256" s="2">
         <v>44085</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0">
         <v>21</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="0">
         <v>7</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="0">
         <v>28</v>
       </c>
     </row>
@@ -4749,13 +5363,13 @@
       <c r="B257" s="2">
         <v>44086</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0">
         <v>20</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="0">
         <v>9</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="0">
         <v>12</v>
       </c>
     </row>
@@ -4766,13 +5380,13 @@
       <c r="B258" s="2">
         <v>44087</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0">
         <v>20</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="0">
         <v>2</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="0">
         <v>12</v>
       </c>
     </row>
@@ -4783,13 +5397,13 @@
       <c r="B259" s="2">
         <v>44088</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0">
         <v>21</v>
       </c>
-      <c r="D259">
-        <v>0</v>
-      </c>
-      <c r="E259">
+      <c r="D259" s="0">
+        <v>0</v>
+      </c>
+      <c r="E259" s="0">
         <v>19</v>
       </c>
     </row>
@@ -4800,13 +5414,13 @@
       <c r="B260" s="2">
         <v>44089</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0">
         <v>22</v>
       </c>
-      <c r="D260">
-        <v>0</v>
-      </c>
-      <c r="E260">
+      <c r="D260" s="0">
+        <v>0</v>
+      </c>
+      <c r="E260" s="0">
         <v>25</v>
       </c>
     </row>
@@ -4817,13 +5431,13 @@
       <c r="B261" s="2">
         <v>44090</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0">
         <v>21</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="0">
         <v>5</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="0">
         <v>19</v>
       </c>
     </row>
@@ -4834,13 +5448,13 @@
       <c r="B262" s="2">
         <v>44091</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0">
         <v>20</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="0">
         <v>4</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4851,13 +5465,13 @@
       <c r="B263" s="2">
         <v>44092</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0">
         <v>19</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="0">
         <v>1</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="0">
         <v>22</v>
       </c>
     </row>
@@ -4868,13 +5482,13 @@
       <c r="B264" s="2">
         <v>44093</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0">
         <v>19</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="0">
         <v>1</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="0">
         <v>22</v>
       </c>
     </row>
@@ -4885,13 +5499,13 @@
       <c r="B265" s="2">
         <v>44094</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0">
         <v>18</v>
       </c>
-      <c r="D265">
-        <v>0</v>
-      </c>
-      <c r="E265">
+      <c r="D265" s="0">
+        <v>0</v>
+      </c>
+      <c r="E265" s="0">
         <v>19</v>
       </c>
     </row>
@@ -4902,13 +5516,13 @@
       <c r="B266" s="2">
         <v>44095</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0">
         <v>17</v>
       </c>
-      <c r="D266">
-        <v>0</v>
-      </c>
-      <c r="E266">
+      <c r="D266" s="0">
+        <v>0</v>
+      </c>
+      <c r="E266" s="0">
         <v>21</v>
       </c>
     </row>
@@ -4919,13 +5533,13 @@
       <c r="B267" s="2">
         <v>44096</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0">
         <v>18</v>
       </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
+      <c r="D267" s="0">
+        <v>0</v>
+      </c>
+      <c r="E267" s="0">
         <v>16</v>
       </c>
     </row>
@@ -4936,13 +5550,13 @@
       <c r="B268" s="2">
         <v>44097</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0">
         <v>18</v>
       </c>
-      <c r="D268">
-        <v>0</v>
-      </c>
-      <c r="E268">
+      <c r="D268" s="0">
+        <v>0</v>
+      </c>
+      <c r="E268" s="0">
         <v>13</v>
       </c>
     </row>
@@ -4953,13 +5567,13 @@
       <c r="B269" s="2">
         <v>44098</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0">
         <v>19</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="0">
         <v>1</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="0">
         <v>14</v>
       </c>
     </row>
@@ -4970,13 +5584,13 @@
       <c r="B270" s="2">
         <v>44099</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0">
         <v>19</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="0">
         <v>2</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="0">
         <v>16</v>
       </c>
     </row>
@@ -4987,13 +5601,13 @@
       <c r="B271" s="2">
         <v>44100</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0">
         <v>19</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="0">
         <v>1</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="0">
         <v>17</v>
       </c>
     </row>
@@ -5004,13 +5618,13 @@
       <c r="B272" s="2">
         <v>44101</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0">
         <v>18</v>
       </c>
-      <c r="D272">
-        <v>0</v>
-      </c>
-      <c r="E272">
+      <c r="D272" s="0">
+        <v>0</v>
+      </c>
+      <c r="E272" s="0">
         <v>16</v>
       </c>
     </row>
@@ -5021,13 +5635,13 @@
       <c r="B273" s="2">
         <v>44102</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0">
         <v>17</v>
       </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
+      <c r="D273" s="0">
+        <v>0</v>
+      </c>
+      <c r="E273" s="0">
         <v>20</v>
       </c>
     </row>
@@ -5038,13 +5652,13 @@
       <c r="B274" s="2">
         <v>44103</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0">
         <v>17</v>
       </c>
-      <c r="D274">
-        <v>0</v>
-      </c>
-      <c r="E274">
+      <c r="D274" s="0">
+        <v>0</v>
+      </c>
+      <c r="E274" s="0">
         <v>24</v>
       </c>
     </row>
@@ -5055,13 +5669,13 @@
       <c r="B275" s="2">
         <v>44104</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0">
         <v>18</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="0">
         <v>1</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="0">
         <v>25</v>
       </c>
     </row>
@@ -5072,13 +5686,13 @@
       <c r="B276" s="2">
         <v>44105</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0">
         <v>18</v>
       </c>
-      <c r="D276">
-        <v>0</v>
-      </c>
-      <c r="E276">
+      <c r="D276" s="0">
+        <v>0</v>
+      </c>
+      <c r="E276" s="0">
         <v>20</v>
       </c>
     </row>
@@ -5089,13 +5703,13 @@
       <c r="B277" s="2">
         <v>44106</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0">
         <v>19</v>
       </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
+      <c r="D277" s="0">
+        <v>0</v>
+      </c>
+      <c r="E277" s="0">
         <v>21</v>
       </c>
     </row>
@@ -5106,13 +5720,13 @@
       <c r="B278" s="2">
         <v>44107</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0">
         <v>20</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="0">
         <v>2</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="0">
         <v>26</v>
       </c>
     </row>
@@ -5123,13 +5737,13 @@
       <c r="B279" s="2">
         <v>44108</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0">
         <v>18</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="0">
         <v>1</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="0">
         <v>26</v>
       </c>
     </row>
@@ -5140,13 +5754,13 @@
       <c r="B280" s="2">
         <v>44109</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0">
         <v>14</v>
       </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280">
+      <c r="D280" s="0">
+        <v>0</v>
+      </c>
+      <c r="E280" s="0">
         <v>22</v>
       </c>
     </row>
@@ -5157,13 +5771,13 @@
       <c r="B281" s="2">
         <v>44110</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0">
         <v>14</v>
       </c>
-      <c r="D281">
-        <v>0</v>
-      </c>
-      <c r="E281">
+      <c r="D281" s="0">
+        <v>0</v>
+      </c>
+      <c r="E281" s="0">
         <v>20</v>
       </c>
     </row>
@@ -5174,13 +5788,13 @@
       <c r="B282" s="2">
         <v>44111</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0">
         <v>16</v>
       </c>
-      <c r="D282">
-        <v>0</v>
-      </c>
-      <c r="E282">
+      <c r="D282" s="0">
+        <v>0</v>
+      </c>
+      <c r="E282" s="0">
         <v>20</v>
       </c>
     </row>
@@ -5191,13 +5805,13 @@
       <c r="B283" s="2">
         <v>44112</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0">
         <v>16</v>
       </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
+      <c r="D283" s="0">
+        <v>0</v>
+      </c>
+      <c r="E283" s="0">
         <v>17</v>
       </c>
     </row>
@@ -5208,13 +5822,13 @@
       <c r="B284" s="2">
         <v>44113</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0">
         <v>17</v>
       </c>
-      <c r="D284">
-        <v>0</v>
-      </c>
-      <c r="E284">
+      <c r="D284" s="0">
+        <v>0</v>
+      </c>
+      <c r="E284" s="0">
         <v>21</v>
       </c>
     </row>
@@ -5225,13 +5839,13 @@
       <c r="B285" s="2">
         <v>44114</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0">
         <v>16</v>
       </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
+      <c r="D285" s="0">
+        <v>0</v>
+      </c>
+      <c r="E285" s="0">
         <v>21</v>
       </c>
     </row>
@@ -5242,13 +5856,13 @@
       <c r="B286" s="2">
         <v>44115</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0">
         <v>16</v>
       </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
+      <c r="D286" s="0">
+        <v>0</v>
+      </c>
+      <c r="E286" s="0">
         <v>22</v>
       </c>
     </row>
@@ -5259,13 +5873,13 @@
       <c r="B287" s="2">
         <v>44116</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0">
         <v>16</v>
       </c>
-      <c r="D287">
-        <v>0</v>
-      </c>
-      <c r="E287">
+      <c r="D287" s="0">
+        <v>0</v>
+      </c>
+      <c r="E287" s="0">
         <v>30</v>
       </c>
     </row>
@@ -5276,13 +5890,13 @@
       <c r="B288" s="2">
         <v>44117</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0">
         <v>14</v>
       </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
+      <c r="D288" s="0">
+        <v>0</v>
+      </c>
+      <c r="E288" s="0">
         <v>24</v>
       </c>
     </row>
@@ -5293,13 +5907,13 @@
       <c r="B289" s="2">
         <v>44118</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0">
         <v>13</v>
       </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289">
+      <c r="D289" s="0">
+        <v>0</v>
+      </c>
+      <c r="E289" s="0">
         <v>30</v>
       </c>
     </row>
@@ -5310,13 +5924,13 @@
       <c r="B290" s="2">
         <v>44119</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0">
         <v>12</v>
       </c>
-      <c r="D290">
-        <v>0</v>
-      </c>
-      <c r="E290">
+      <c r="D290" s="0">
+        <v>0</v>
+      </c>
+      <c r="E290" s="0">
         <v>28</v>
       </c>
     </row>
@@ -5327,13 +5941,13 @@
       <c r="B291" s="2">
         <v>44120</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0">
         <v>12</v>
       </c>
-      <c r="D291">
-        <v>0</v>
-      </c>
-      <c r="E291">
+      <c r="D291" s="0">
+        <v>0</v>
+      </c>
+      <c r="E291" s="0">
         <v>33</v>
       </c>
     </row>
@@ -5344,13 +5958,13 @@
       <c r="B292" s="2">
         <v>44121</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0">
         <v>13</v>
       </c>
-      <c r="D292">
-        <v>0</v>
-      </c>
-      <c r="E292">
+      <c r="D292" s="0">
+        <v>0</v>
+      </c>
+      <c r="E292" s="0">
         <v>31</v>
       </c>
     </row>
@@ -5361,13 +5975,13 @@
       <c r="B293" s="2">
         <v>44122</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0">
         <v>13</v>
       </c>
-      <c r="D293">
-        <v>0</v>
-      </c>
-      <c r="E293">
+      <c r="D293" s="0">
+        <v>0</v>
+      </c>
+      <c r="E293" s="0">
         <v>28</v>
       </c>
     </row>
@@ -5378,13 +5992,13 @@
       <c r="B294" s="2">
         <v>44123</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0">
         <v>13</v>
       </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294">
+      <c r="D294" s="0">
+        <v>0</v>
+      </c>
+      <c r="E294" s="0">
         <v>41</v>
       </c>
     </row>
@@ -5395,13 +6009,13 @@
       <c r="B295" s="2">
         <v>44124</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0">
         <v>13</v>
       </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
+      <c r="D295" s="0">
+        <v>0</v>
+      </c>
+      <c r="E295" s="0">
         <v>47</v>
       </c>
     </row>
@@ -5412,13 +6026,13 @@
       <c r="B296" s="2">
         <v>44125</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0">
         <v>13</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="0">
         <v>8</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="0">
         <v>40</v>
       </c>
     </row>
@@ -5429,13 +6043,13 @@
       <c r="B297" s="2">
         <v>44126</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0">
         <v>14</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="0">
         <v>1</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="0">
         <v>45</v>
       </c>
     </row>
@@ -5446,13 +6060,13 @@
       <c r="B298" s="2">
         <v>44127</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0">
         <v>10</v>
       </c>
-      <c r="D298">
-        <v>0</v>
-      </c>
-      <c r="E298">
+      <c r="D298" s="0">
+        <v>0</v>
+      </c>
+      <c r="E298" s="0">
         <v>25</v>
       </c>
     </row>
@@ -5463,13 +6077,13 @@
       <c r="B299" s="2">
         <v>44128</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0">
         <v>10</v>
       </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
+      <c r="D299" s="0">
+        <v>0</v>
+      </c>
+      <c r="E299" s="0">
         <v>21</v>
       </c>
     </row>
@@ -5480,13 +6094,13 @@
       <c r="B300" s="2">
         <v>44129</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0">
         <v>12</v>
       </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300">
+      <c r="D300" s="0">
+        <v>0</v>
+      </c>
+      <c r="E300" s="0">
         <v>25</v>
       </c>
     </row>
@@ -5497,13 +6111,13 @@
       <c r="B301" s="2">
         <v>44130</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0">
         <v>12</v>
       </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301">
+      <c r="D301" s="0">
+        <v>0</v>
+      </c>
+      <c r="E301" s="0">
         <v>38</v>
       </c>
     </row>
@@ -5514,13 +6128,13 @@
       <c r="B302" s="2">
         <v>44131</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0">
         <v>13</v>
       </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
+      <c r="D302" s="0">
+        <v>0</v>
+      </c>
+      <c r="E302" s="0">
         <v>54</v>
       </c>
     </row>
@@ -5531,13 +6145,13 @@
       <c r="B303" s="2">
         <v>44132</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0">
         <v>14</v>
       </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
+      <c r="D303" s="0">
+        <v>0</v>
+      </c>
+      <c r="E303" s="0">
         <v>56</v>
       </c>
     </row>
@@ -5548,13 +6162,13 @@
       <c r="B304" s="2">
         <v>44133</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0">
         <v>10</v>
       </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304">
+      <c r="D304" s="0">
+        <v>0</v>
+      </c>
+      <c r="E304" s="0">
         <v>31</v>
       </c>
     </row>
@@ -5565,13 +6179,13 @@
       <c r="B305" s="2">
         <v>44134</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0">
         <v>11</v>
       </c>
-      <c r="D305">
-        <v>0</v>
-      </c>
-      <c r="E305">
+      <c r="D305" s="0">
+        <v>0</v>
+      </c>
+      <c r="E305" s="0">
         <v>34</v>
       </c>
     </row>
@@ -5582,13 +6196,13 @@
       <c r="B306" s="2">
         <v>44135</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0">
         <v>12</v>
       </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-      <c r="E306">
+      <c r="D306" s="0">
+        <v>0</v>
+      </c>
+      <c r="E306" s="0">
         <v>27</v>
       </c>
     </row>
@@ -5599,13 +6213,13 @@
       <c r="B307" s="2">
         <v>44136</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0">
         <v>13</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="0">
         <v>3</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="0">
         <v>26</v>
       </c>
     </row>
@@ -5616,13 +6230,13 @@
       <c r="B308" s="2">
         <v>44137</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0">
         <v>11</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="0">
         <v>1</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="0">
         <v>35</v>
       </c>
     </row>
@@ -5633,13 +6247,13 @@
       <c r="B309" s="2">
         <v>44138</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0">
         <v>7</v>
       </c>
-      <c r="D309">
-        <v>0</v>
-      </c>
-      <c r="E309">
+      <c r="D309" s="0">
+        <v>0</v>
+      </c>
+      <c r="E309" s="0">
         <v>22</v>
       </c>
     </row>
@@ -5650,13 +6264,13 @@
       <c r="B310" s="2">
         <v>44139</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0">
         <v>6</v>
       </c>
-      <c r="D310">
-        <v>0</v>
-      </c>
-      <c r="E310">
+      <c r="D310" s="0">
+        <v>0</v>
+      </c>
+      <c r="E310" s="0">
         <v>23</v>
       </c>
     </row>
@@ -5667,13 +6281,13 @@
       <c r="B311" s="2">
         <v>44140</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0">
         <v>9</v>
       </c>
-      <c r="D311">
-        <v>0</v>
-      </c>
-      <c r="E311">
+      <c r="D311" s="0">
+        <v>0</v>
+      </c>
+      <c r="E311" s="0">
         <v>32</v>
       </c>
     </row>
@@ -5684,13 +6298,13 @@
       <c r="B312" s="2">
         <v>44141</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0">
         <v>12</v>
       </c>
-      <c r="D312">
-        <v>0</v>
-      </c>
-      <c r="E312">
+      <c r="D312" s="0">
+        <v>0</v>
+      </c>
+      <c r="E312" s="0">
         <v>42</v>
       </c>
     </row>
@@ -5701,13 +6315,13 @@
       <c r="B313" s="2">
         <v>44142</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0">
         <v>14</v>
       </c>
-      <c r="D313">
-        <v>0</v>
-      </c>
-      <c r="E313">
+      <c r="D313" s="0">
+        <v>0</v>
+      </c>
+      <c r="E313" s="0">
         <v>55</v>
       </c>
     </row>
@@ -5718,13 +6332,13 @@
       <c r="B314" s="2">
         <v>44143</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0">
         <v>10</v>
       </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314">
+      <c r="D314" s="0">
+        <v>0</v>
+      </c>
+      <c r="E314" s="0">
         <v>54</v>
       </c>
     </row>
@@ -5735,13 +6349,13 @@
       <c r="B315" s="2">
         <v>44144</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0">
         <v>7</v>
       </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-      <c r="E315">
+      <c r="D315" s="0">
+        <v>0</v>
+      </c>
+      <c r="E315" s="0">
         <v>23</v>
       </c>
     </row>
@@ -5752,13 +6366,13 @@
       <c r="B316" s="2">
         <v>44145</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0">
         <v>8</v>
       </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316">
+      <c r="D316" s="0">
+        <v>0</v>
+      </c>
+      <c r="E316" s="0">
         <v>26</v>
       </c>
     </row>
@@ -5769,13 +6383,13 @@
       <c r="B317" s="2">
         <v>44146</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0">
         <v>8</v>
       </c>
-      <c r="D317">
-        <v>0</v>
-      </c>
-      <c r="E317">
+      <c r="D317" s="0">
+        <v>0</v>
+      </c>
+      <c r="E317" s="0">
         <v>32</v>
       </c>
     </row>
@@ -5786,13 +6400,13 @@
       <c r="B318" s="2">
         <v>44147</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0">
         <v>9</v>
       </c>
-      <c r="D318">
-        <v>0</v>
-      </c>
-      <c r="E318">
+      <c r="D318" s="0">
+        <v>0</v>
+      </c>
+      <c r="E318" s="0">
         <v>39</v>
       </c>
     </row>
@@ -5803,13 +6417,13 @@
       <c r="B319" s="2">
         <v>44148</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0">
         <v>10</v>
       </c>
-      <c r="D319">
-        <v>0</v>
-      </c>
-      <c r="E319">
+      <c r="D319" s="0">
+        <v>0</v>
+      </c>
+      <c r="E319" s="0">
         <v>50</v>
       </c>
     </row>
@@ -5820,13 +6434,13 @@
       <c r="B320" s="2">
         <v>44149</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0">
         <v>11</v>
       </c>
-      <c r="D320">
-        <v>0</v>
-      </c>
-      <c r="E320">
+      <c r="D320" s="0">
+        <v>0</v>
+      </c>
+      <c r="E320" s="0">
         <v>50</v>
       </c>
     </row>
@@ -5837,13 +6451,13 @@
       <c r="B321" s="2">
         <v>44150</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0">
         <v>11</v>
       </c>
-      <c r="D321">
-        <v>0</v>
-      </c>
-      <c r="E321">
+      <c r="D321" s="0">
+        <v>0</v>
+      </c>
+      <c r="E321" s="0">
         <v>45</v>
       </c>
     </row>
@@ -5854,13 +6468,13 @@
       <c r="B322" s="2">
         <v>44151</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0">
         <v>12</v>
       </c>
-      <c r="D322">
-        <v>0</v>
-      </c>
-      <c r="E322">
+      <c r="D322" s="0">
+        <v>0</v>
+      </c>
+      <c r="E322" s="0">
         <v>59</v>
       </c>
     </row>
@@ -5871,13 +6485,13 @@
       <c r="B323" s="2">
         <v>44152</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0">
         <v>15</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="0">
         <v>1</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="0">
         <v>54</v>
       </c>
     </row>
@@ -5888,13 +6502,13 @@
       <c r="B324" s="2">
         <v>44153</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0">
         <v>18</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="0">
         <v>3</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="0">
         <v>33</v>
       </c>
     </row>
@@ -5905,13 +6519,13 @@
       <c r="B325" s="2">
         <v>44154</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0">
         <v>17</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="0">
         <v>29</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="0">
         <v>15</v>
       </c>
     </row>
@@ -5922,13 +6536,13 @@
       <c r="B326" s="2">
         <v>44155</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0">
         <v>8</v>
       </c>
-      <c r="D326">
-        <v>0</v>
-      </c>
-      <c r="E326">
+      <c r="D326" s="0">
+        <v>0</v>
+      </c>
+      <c r="E326" s="0">
         <v>19</v>
       </c>
     </row>
@@ -5939,13 +6553,13 @@
       <c r="B327" s="2">
         <v>44156</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0">
         <v>8</v>
       </c>
-      <c r="D327">
-        <v>0</v>
-      </c>
-      <c r="E327">
+      <c r="D327" s="0">
+        <v>0</v>
+      </c>
+      <c r="E327" s="0">
         <v>24</v>
       </c>
     </row>
@@ -5956,13 +6570,13 @@
       <c r="B328" s="2">
         <v>44157</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0">
         <v>8</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="0">
         <v>2</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="0">
         <v>19</v>
       </c>
     </row>
@@ -5973,13 +6587,13 @@
       <c r="B329" s="2">
         <v>44158</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0">
         <v>5</v>
       </c>
-      <c r="D329">
-        <v>0</v>
-      </c>
-      <c r="E329">
+      <c r="D329" s="0">
+        <v>0</v>
+      </c>
+      <c r="E329" s="0">
         <v>20</v>
       </c>
     </row>
@@ -5990,13 +6604,13 @@
       <c r="B330" s="2">
         <v>44159</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0">
         <v>5</v>
       </c>
-      <c r="D330">
-        <v>0</v>
-      </c>
-      <c r="E330">
+      <c r="D330" s="0">
+        <v>0</v>
+      </c>
+      <c r="E330" s="0">
         <v>23</v>
       </c>
     </row>
@@ -6007,13 +6621,13 @@
       <c r="B331" s="2">
         <v>44160</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0">
         <v>6</v>
       </c>
-      <c r="D331">
-        <v>0</v>
-      </c>
-      <c r="E331">
+      <c r="D331" s="0">
+        <v>0</v>
+      </c>
+      <c r="E331" s="0">
         <v>29</v>
       </c>
     </row>
@@ -6024,13 +6638,13 @@
       <c r="B332" s="2">
         <v>44161</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0">
         <v>7</v>
       </c>
-      <c r="D332">
-        <v>0</v>
-      </c>
-      <c r="E332">
+      <c r="D332" s="0">
+        <v>0</v>
+      </c>
+      <c r="E332" s="0">
         <v>43</v>
       </c>
     </row>
@@ -6041,13 +6655,13 @@
       <c r="B333" s="2">
         <v>44162</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0">
         <v>6</v>
       </c>
-      <c r="D333">
-        <v>0</v>
-      </c>
-      <c r="E333">
+      <c r="D333" s="0">
+        <v>0</v>
+      </c>
+      <c r="E333" s="0">
         <v>35</v>
       </c>
     </row>
@@ -6058,13 +6672,13 @@
       <c r="B334" s="2">
         <v>44163</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0">
         <v>3</v>
       </c>
-      <c r="D334">
-        <v>0</v>
-      </c>
-      <c r="E334">
+      <c r="D334" s="0">
+        <v>0</v>
+      </c>
+      <c r="E334" s="0">
         <v>20</v>
       </c>
     </row>
@@ -6075,13 +6689,13 @@
       <c r="B335" s="2">
         <v>44164</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0">
         <v>3</v>
       </c>
-      <c r="D335">
-        <v>0</v>
-      </c>
-      <c r="E335">
+      <c r="D335" s="0">
+        <v>0</v>
+      </c>
+      <c r="E335" s="0">
         <v>19</v>
       </c>
     </row>
@@ -6092,13 +6706,13 @@
       <c r="B336" s="2">
         <v>44165</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0">
         <v>2</v>
       </c>
-      <c r="D336">
-        <v>0</v>
-      </c>
-      <c r="E336">
+      <c r="D336" s="0">
+        <v>0</v>
+      </c>
+      <c r="E336" s="0">
         <v>22</v>
       </c>
     </row>
@@ -6109,13 +6723,13 @@
       <c r="B337" s="2">
         <v>44166</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0">
         <v>2</v>
       </c>
-      <c r="D337">
-        <v>0</v>
-      </c>
-      <c r="E337">
+      <c r="D337" s="0">
+        <v>0</v>
+      </c>
+      <c r="E337" s="0">
         <v>28</v>
       </c>
     </row>
@@ -6126,13 +6740,13 @@
       <c r="B338" s="2">
         <v>44167</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0">
         <v>4</v>
       </c>
-      <c r="D338">
-        <v>0</v>
-      </c>
-      <c r="E338">
+      <c r="D338" s="0">
+        <v>0</v>
+      </c>
+      <c r="E338" s="0">
         <v>27</v>
       </c>
     </row>
@@ -6143,13 +6757,13 @@
       <c r="B339" s="2">
         <v>44168</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0">
         <v>3</v>
       </c>
-      <c r="D339">
-        <v>0</v>
-      </c>
-      <c r="E339">
+      <c r="D339" s="0">
+        <v>0</v>
+      </c>
+      <c r="E339" s="0">
         <v>24</v>
       </c>
     </row>
@@ -6160,13 +6774,13 @@
       <c r="B340" s="2">
         <v>44169</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0">
         <v>1</v>
       </c>
-      <c r="D340">
-        <v>0</v>
-      </c>
-      <c r="E340">
+      <c r="D340" s="0">
+        <v>0</v>
+      </c>
+      <c r="E340" s="0">
         <v>25</v>
       </c>
     </row>
@@ -6177,13 +6791,13 @@
       <c r="B341" s="2">
         <v>44170</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0">
         <v>2</v>
       </c>
-      <c r="D341">
-        <v>0</v>
-      </c>
-      <c r="E341">
+      <c r="D341" s="0">
+        <v>0</v>
+      </c>
+      <c r="E341" s="0">
         <v>30</v>
       </c>
     </row>
@@ -6194,13 +6808,13 @@
       <c r="B342" s="2">
         <v>44171</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0">
         <v>4</v>
       </c>
-      <c r="D342">
-        <v>0</v>
-      </c>
-      <c r="E342">
+      <c r="D342" s="0">
+        <v>0</v>
+      </c>
+      <c r="E342" s="0">
         <v>36</v>
       </c>
     </row>
@@ -6211,13 +6825,13 @@
       <c r="B343" s="2">
         <v>44172</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0">
         <v>4</v>
       </c>
-      <c r="D343">
-        <v>0</v>
-      </c>
-      <c r="E343">
+      <c r="D343" s="0">
+        <v>0</v>
+      </c>
+      <c r="E343" s="0">
         <v>48</v>
       </c>
     </row>
@@ -6228,13 +6842,13 @@
       <c r="B344" s="2">
         <v>44173</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0">
         <v>1</v>
       </c>
-      <c r="D344">
-        <v>0</v>
-      </c>
-      <c r="E344">
+      <c r="D344" s="0">
+        <v>0</v>
+      </c>
+      <c r="E344" s="0">
         <v>28</v>
       </c>
     </row>
@@ -6245,13 +6859,13 @@
       <c r="B345" s="2">
         <v>44174</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0">
         <v>2</v>
       </c>
-      <c r="D345">
-        <v>0</v>
-      </c>
-      <c r="E345">
+      <c r="D345" s="0">
+        <v>0</v>
+      </c>
+      <c r="E345" s="0">
         <v>31</v>
       </c>
     </row>
@@ -6262,13 +6876,13 @@
       <c r="B346" s="2">
         <v>44175</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0">
         <v>5</v>
       </c>
-      <c r="D346">
-        <v>0</v>
-      </c>
-      <c r="E346">
+      <c r="D346" s="0">
+        <v>0</v>
+      </c>
+      <c r="E346" s="0">
         <v>42</v>
       </c>
     </row>
@@ -6279,13 +6893,13 @@
       <c r="B347" s="2">
         <v>44176</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0">
         <v>6</v>
       </c>
-      <c r="D347">
-        <v>0</v>
-      </c>
-      <c r="E347">
+      <c r="D347" s="0">
+        <v>0</v>
+      </c>
+      <c r="E347" s="0">
         <v>61</v>
       </c>
     </row>
@@ -6296,13 +6910,13 @@
       <c r="B348" s="2">
         <v>44177</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0">
         <v>4</v>
       </c>
-      <c r="D348">
-        <v>0</v>
-      </c>
-      <c r="E348">
+      <c r="D348" s="0">
+        <v>0</v>
+      </c>
+      <c r="E348" s="0">
         <v>50</v>
       </c>
     </row>
@@ -6313,13 +6927,13 @@
       <c r="B349" s="2">
         <v>44178</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0">
         <v>2</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="0">
         <v>2</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="0">
         <v>37</v>
       </c>
     </row>
@@ -6330,13 +6944,13 @@
       <c r="B350" s="2">
         <v>44179</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0">
         <v>-4</v>
       </c>
-      <c r="D350">
-        <v>0</v>
-      </c>
-      <c r="E350">
+      <c r="D350" s="0">
+        <v>0</v>
+      </c>
+      <c r="E350" s="0">
         <v>17</v>
       </c>
     </row>
@@ -6347,13 +6961,13 @@
       <c r="B351" s="2">
         <v>44180</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0">
         <v>-5</v>
       </c>
-      <c r="D351">
-        <v>0</v>
-      </c>
-      <c r="E351">
+      <c r="D351" s="0">
+        <v>0</v>
+      </c>
+      <c r="E351" s="0">
         <v>17</v>
       </c>
     </row>
@@ -6364,13 +6978,13 @@
       <c r="B352" s="2">
         <v>44181</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0">
         <v>-5</v>
       </c>
-      <c r="D352">
-        <v>0</v>
-      </c>
-      <c r="E352">
+      <c r="D352" s="0">
+        <v>0</v>
+      </c>
+      <c r="E352" s="0">
         <v>19</v>
       </c>
     </row>
@@ -6381,13 +6995,13 @@
       <c r="B353" s="2">
         <v>44182</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0">
         <v>-3</v>
       </c>
-      <c r="D353">
-        <v>0</v>
-      </c>
-      <c r="E353">
+      <c r="D353" s="0">
+        <v>0</v>
+      </c>
+      <c r="E353" s="0">
         <v>22</v>
       </c>
     </row>
@@ -6398,13 +7012,13 @@
       <c r="B354" s="2">
         <v>44183</v>
       </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-      <c r="D354">
-        <v>0</v>
-      </c>
-      <c r="E354">
+      <c r="C354" s="0">
+        <v>0</v>
+      </c>
+      <c r="D354" s="0">
+        <v>0</v>
+      </c>
+      <c r="E354" s="0">
         <v>31</v>
       </c>
     </row>
@@ -6415,13 +7029,13 @@
       <c r="B355" s="2">
         <v>44184</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="0">
         <v>-3</v>
       </c>
-      <c r="D355">
-        <v>0</v>
-      </c>
-      <c r="E355">
+      <c r="D355" s="0">
+        <v>0</v>
+      </c>
+      <c r="E355" s="0">
         <v>22</v>
       </c>
     </row>
@@ -6432,13 +7046,13 @@
       <c r="B356" s="2">
         <v>44185</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="0">
         <v>-2</v>
       </c>
-      <c r="D356">
-        <v>0</v>
-      </c>
-      <c r="E356">
+      <c r="D356" s="0">
+        <v>0</v>
+      </c>
+      <c r="E356" s="0">
         <v>22</v>
       </c>
     </row>
@@ -6449,13 +7063,13 @@
       <c r="B357" s="2">
         <v>44186</v>
       </c>
-      <c r="C357">
-        <v>0</v>
-      </c>
-      <c r="D357">
-        <v>0</v>
-      </c>
-      <c r="E357">
+      <c r="C357" s="0">
+        <v>0</v>
+      </c>
+      <c r="D357" s="0">
+        <v>0</v>
+      </c>
+      <c r="E357" s="0">
         <v>34</v>
       </c>
     </row>
@@ -6466,13 +7080,13 @@
       <c r="B358" s="2">
         <v>44187</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="0">
         <v>1</v>
       </c>
-      <c r="D358">
-        <v>0</v>
-      </c>
-      <c r="E358">
+      <c r="D358" s="0">
+        <v>0</v>
+      </c>
+      <c r="E358" s="0">
         <v>47</v>
       </c>
     </row>
@@ -6483,13 +7097,13 @@
       <c r="B359" s="2">
         <v>44188</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="0">
         <v>3</v>
       </c>
-      <c r="D359">
-        <v>0</v>
-      </c>
-      <c r="E359">
+      <c r="D359" s="0">
+        <v>0</v>
+      </c>
+      <c r="E359" s="0">
         <v>63</v>
       </c>
     </row>
@@ -6500,13 +7114,13 @@
       <c r="B360" s="2">
         <v>44189</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="0">
         <v>4</v>
       </c>
-      <c r="D360">
-        <v>0</v>
-      </c>
-      <c r="E360">
+      <c r="D360" s="0">
+        <v>0</v>
+      </c>
+      <c r="E360" s="0">
         <v>56</v>
       </c>
     </row>
@@ -6517,13 +7131,13 @@
       <c r="B361" s="2">
         <v>44190</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="0">
         <v>1</v>
       </c>
-      <c r="D361">
-        <v>0</v>
-      </c>
-      <c r="E361">
+      <c r="D361" s="0">
+        <v>0</v>
+      </c>
+      <c r="E361" s="0">
         <v>25</v>
       </c>
     </row>
@@ -6534,13 +7148,13 @@
       <c r="B362" s="2">
         <v>44191</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="0">
         <v>2</v>
       </c>
-      <c r="D362">
-        <v>0</v>
-      </c>
-      <c r="E362">
+      <c r="D362" s="0">
+        <v>0</v>
+      </c>
+      <c r="E362" s="0">
         <v>42</v>
       </c>
     </row>
@@ -6551,13 +7165,13 @@
       <c r="B363" s="2">
         <v>44192</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="0">
         <v>4</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="0">
         <v>4</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="0">
         <v>49</v>
       </c>
     </row>
@@ -6568,13 +7182,13 @@
       <c r="B364" s="2">
         <v>44193</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="0">
         <v>5</v>
       </c>
-      <c r="D364">
-        <v>0</v>
-      </c>
-      <c r="E364">
+      <c r="D364" s="0">
+        <v>0</v>
+      </c>
+      <c r="E364" s="0">
         <v>44</v>
       </c>
     </row>
@@ -6585,51 +7199,27 @@
       <c r="B365" s="2">
         <v>44194</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="0">
         <v>3</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="0">
         <v>2</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366" s="2">
-        <v>44195</v>
-      </c>
-      <c r="C366">
-        <v>-6</v>
-      </c>
-      <c r="D366">
-        <v>1</v>
-      </c>
-      <c r="E366">
-        <v>22</v>
-      </c>
+      <c r="A366" s="1"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367" s="2">
-        <v>44196</v>
-      </c>
-      <c r="C367">
-        <v>-6</v>
-      </c>
-      <c r="D367">
-        <v>0</v>
-      </c>
-      <c r="E367">
-        <v>20</v>
-      </c>
+      <c r="A367" s="1"/>
+      <c r="B367" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>